--- a/Threaded Comments/Resolve Comment/NET Standard/Resolve Comment/Resolve Comment/Data/CommentsTemplate.xlsx
+++ b/Threaded Comments/Resolve Comment/NET Standard/Resolve Comment/Resolve Comment/Data/CommentsTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KonduruKeerthiKondur\Desktop\Sample Browser\Build Issues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XlsIO Examples Repo\Threaded-Comments\XlsIO-Examples\Threaded Comments\Resolve Comment\NET Standard\Resolve Comment\Resolve Comment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD549A7F-90CF-4F03-8881-FA797E792D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331785AB-B853-4069-8DD9-C7387F0DBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FD47107E-0B4F-4FE6-82C1-1771CF0F458D}</author>
+  </authors>
+  <commentList>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{FD47107E-0B4F-4FE6-82C1-1771CF0F458D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    What is the reason for the higher total amount of "desk"  in the west region?
+Reply:
+    The unit cost of desk is higher compared to other items in the west region. As a result, the total amount is elevated.", "User2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -226,6 +246,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kurmitha Manickhaperumal" id="{17D952FB-A6CF-4406-89EC-EED7CE3FCB4D}" userId="S::kurmitha.m@syncfusion.com::3e2fb11d-360f-49d7-8b32-c47346333992" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,27 +566,38 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H16" dT="2023-09-19T11:43:50.69" personId="{17D952FB-A6CF-4406-89EC-EED7CE3FCB4D}" id="{FD47107E-0B4F-4FE6-82C1-1771CF0F458D}">
+    <text>What is the reason for the higher total amount of "desk"  in the west region?</text>
+  </threadedComment>
+  <threadedComment ref="H16" dT="2023-09-19T11:50:20.36" personId="{17D952FB-A6CF-4406-89EC-EED7CE3FCB4D}" id="{8F0CC9B7-AE52-425D-9FF0-E890235AD576}" parentId="{FD47107E-0B4F-4FE6-82C1-1771CF0F458D}">
+    <text>The unit cost of desk is higher compared to other items in the west region. As a result, the total amount is elevated.", "User2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>39431</v>
       </c>
@@ -612,7 +649,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>39434</v>
       </c>
@@ -638,7 +675,7 @@
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>39437</v>
       </c>
@@ -664,7 +701,7 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>39440</v>
       </c>
@@ -690,7 +727,7 @@
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>39443</v>
       </c>
@@ -716,7 +753,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>39446</v>
       </c>
@@ -742,7 +779,7 @@
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>39449</v>
       </c>
@@ -768,7 +805,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>39452</v>
       </c>
@@ -794,7 +831,7 @@
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>39455</v>
       </c>
@@ -820,7 +857,7 @@
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>39458</v>
       </c>
@@ -846,7 +883,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>39461</v>
       </c>
@@ -872,7 +909,7 @@
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>39464</v>
       </c>
@@ -898,7 +935,7 @@
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>39467</v>
       </c>
@@ -924,7 +961,7 @@
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>39470</v>
       </c>
@@ -950,7 +987,7 @@
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>39473</v>
       </c>
@@ -976,7 +1013,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>39476</v>
       </c>
@@ -1002,7 +1039,7 @@
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>39479</v>
       </c>
@@ -1028,7 +1065,7 @@
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>39482</v>
       </c>
@@ -1054,7 +1091,7 @@
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>39485</v>
       </c>
@@ -1080,7 +1117,7 @@
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>39488</v>
       </c>
@@ -1106,7 +1143,7 @@
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>39491</v>
       </c>
@@ -1132,7 +1169,7 @@
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>39494</v>
       </c>
@@ -1158,7 +1195,7 @@
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>39497</v>
       </c>
@@ -1184,7 +1221,7 @@
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>39500</v>
       </c>
@@ -1210,7 +1247,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>39503</v>
       </c>
@@ -1236,7 +1273,7 @@
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>39506</v>
       </c>
@@ -1262,7 +1299,7 @@
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>39509</v>
       </c>
@@ -1288,7 +1325,7 @@
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>39512</v>
       </c>
@@ -1314,7 +1351,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>39515</v>
       </c>
@@ -1342,8 +1379,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>